--- a/medicine/Pharmacie/Orion_(entreprise)/Orion_(entreprise).xlsx
+++ b/medicine/Pharmacie/Orion_(entreprise)/Orion_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Orion Corporation est une entreprise pharmaceutique finlandaise. Fondée en 1917, elle a son siège à Espoo et est également cotée en bourse.
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le secteur pharmaceutique, Orion recherche, développe, fabrique et commercialise des médicaments à destination humaine et à usage vétérinaire ainsi que des substances actives[1].
-L'activité Pharmaceutique représente environ 95% du chiffre d’affaires d’Orion[1].
-Une part importante du chiffre d’affaires provient d’inventions pharmaceutiques issues des activités de recherche de la société[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le secteur pharmaceutique, Orion recherche, développe, fabrique et commercialise des médicaments à destination humaine et à usage vétérinaire ainsi que des substances actives.
+L'activité Pharmaceutique représente environ 95% du chiffre d’affaires d’Orion.
+Une part importante du chiffre d’affaires provient d’inventions pharmaceutiques issues des activités de recherche de la société.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orion est fondée, le 21 septembre 1917, par les pharmaciens Onni Turpeinen, Eemil Tuurala et Wikki Valkama[2].
-Avant de créer Orion, ils ont travaillé pour une usine pharmaceutique et chimique appelée Medica (fi)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orion est fondée, le 21 septembre 1917, par les pharmaciens Onni Turpeinen, Eemil Tuurala et Wikki Valkama.
+Avant de créer Orion, ils ont travaillé pour une usine pharmaceutique et chimique appelée Medica (fi).
 En juillet 2006, Orion Oyj a été divisée en deux sociétés côtées distinctes, la nouvelle société Orion Oyj et Oriola-KD Oyj.
 Orion Pharma et Orion Diagnostica sont transférés à la nouvelle Orion Oyj.
 </t>
